--- a/testNadz/3.Mobile_iOS/AutoReg_FBG2.0_Happy_Flow_E2E_Mobile_iOS.xlsx
+++ b/testNadz/3.Mobile_iOS/AutoReg_FBG2.0_Happy_Flow_E2E_Mobile_iOS.xlsx
@@ -424,22 +424,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>iOS_Individual_SignUp</v>
+        <v>iOS_Individual_SignUp_AppleId</v>
       </c>
       <c r="B2" t="str">
-        <v>TC001</v>
+        <v>TC004</v>
       </c>
       <c r="C2" t="str">
-        <v>iOS_Individual_SignUp_Email_HappyFlow</v>
+        <v>iOS_Individual_SignUp_AppleId_HappyFlow</v>
       </c>
       <c r="D2" t="str">
-        <v>7/17/2025, 2:57:08 PM</v>
+        <v>7/18/2025, 4:25:22 PM</v>
       </c>
       <c r="E2" t="str">
         <v>PASS</v>
       </c>
       <c r="F2" t="str">
-        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/3.Mobile_iOS/screenshots/Mobile_iOS_SignUp/step9_test_completed_success.png</v>
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/3.Mobile_iOS/screenshots/Mobile_iOS_SignUp_AppleId_Individual/step52_test_completed_success.png</v>
       </c>
     </row>
   </sheetData>

--- a/testNadz/3.Mobile_iOS/AutoReg_FBG2.0_Happy_Flow_E2E_Mobile_iOS.xlsx
+++ b/testNadz/3.Mobile_iOS/AutoReg_FBG2.0_Happy_Flow_E2E_Mobile_iOS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="iOS_SignUp" sheetId="1" r:id="rId1"/>
+    <sheet name="iOS_SignIn" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -424,22 +424,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>iOS_Individual_SignUp_AppleId</v>
+        <v>iOS_SignIn_AppleIdv2</v>
       </c>
       <c r="B2" t="str">
-        <v>TC004</v>
+        <v>TC010</v>
       </c>
       <c r="C2" t="str">
-        <v>iOS_Individual_SignUp_AppleId_HappyFlow</v>
+        <v>iOS_SignIn_AppleIdv2_HappyFlow</v>
       </c>
       <c r="D2" t="str">
-        <v>7/18/2025, 4:25:22 PM</v>
+        <v>7/18/2025, 5:10:39 PM</v>
       </c>
       <c r="E2" t="str">
         <v>PASS</v>
       </c>
       <c r="F2" t="str">
-        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/3.Mobile_iOS/screenshots/Mobile_iOS_SignUp_AppleId_Individual/step52_test_completed_success.png</v>
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/3.Mobile_iOS/screenshots/Mobile_iOS_SignIn_AppleIdv2/step8_test_completed_success.png</v>
       </c>
     </row>
   </sheetData>

--- a/testNadz/3.Mobile_iOS/AutoReg_FBG2.0_Happy_Flow_E2E_Mobile_iOS.xlsx
+++ b/testNadz/3.Mobile_iOS/AutoReg_FBG2.0_Happy_Flow_E2E_Mobile_iOS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="iOS_SignIn" sheetId="1" r:id="rId1"/>
+    <sheet name="iOS_SignUp" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -424,22 +424,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>iOS_SignIn_AppleIdv2</v>
+        <v>iOS_Company_SignUp_Email</v>
       </c>
       <c r="B2" t="str">
-        <v>TC010</v>
+        <v>TC005</v>
       </c>
       <c r="C2" t="str">
-        <v>iOS_SignIn_AppleIdv2_HappyFlow</v>
+        <v>iOS_Company_SignUp_Email_HappyFlow</v>
       </c>
       <c r="D2" t="str">
-        <v>7/18/2025, 5:10:39 PM</v>
+        <v>7/21/2025, 5:44:10 PM</v>
       </c>
       <c r="E2" t="str">
         <v>PASS</v>
       </c>
       <c r="F2" t="str">
-        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/3.Mobile_iOS/screenshots/Mobile_iOS_SignIn_AppleIdv2/step8_test_completed_success.png</v>
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/3.Mobile_iOS/screenshots/Mobile_iOS_SignUp_Email_Company/step51_test_completed_success.png</v>
       </c>
     </row>
   </sheetData>

--- a/testNadz/3.Mobile_iOS/AutoReg_FBG2.0_Happy_Flow_E2E_Mobile_iOS.xlsx
+++ b/testNadz/3.Mobile_iOS/AutoReg_FBG2.0_Happy_Flow_E2E_Mobile_iOS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="iOS_SignUp" sheetId="1" r:id="rId1"/>
+    <sheet name="Mobile_iOS_Test_Results" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -424,27 +424,47 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>iOS_Company_SignUp_Email</v>
+        <v>iOS_SubmitSingleCrop</v>
       </c>
       <c r="B2" t="str">
-        <v>TC005</v>
+        <v>TC0013</v>
       </c>
       <c r="C2" t="str">
-        <v>iOS_Company_SignUp_Email_HappyFlow</v>
+        <v>iOS_Submit_Single_Crop_Driver_Collect_HappyFlow</v>
       </c>
       <c r="D2" t="str">
-        <v>7/21/2025, 5:44:10 PM</v>
+        <v>7/25/2025, 1:04:16 PM</v>
       </c>
       <c r="E2" t="str">
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="F2" t="str">
-        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/3.Mobile_iOS/screenshots/Mobile_iOS_SignUp_Email_Company/step51_test_completed_success.png</v>
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/3.Mobile_iOS/screenshots/Mobile_iOS_TC0013_SubmitSingleCrop/step17_error.png</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>iOS_SubmitSingleCrop</v>
+      </c>
+      <c r="B3" t="str">
+        <v>TC0013</v>
+      </c>
+      <c r="C3" t="str">
+        <v>iOS_Submit_Single_Crop_Driver_Collect_HappyFlow</v>
+      </c>
+      <c r="D3" t="str">
+        <v>7/25/2025, 4:38:24 PM</v>
+      </c>
+      <c r="E3" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F3" t="str">
+        <v>N/A</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/testNadz/3.Mobile_iOS/AutoReg_FBG2.0_Happy_Flow_E2E_Mobile_iOS.xlsx
+++ b/testNadz/3.Mobile_iOS/AutoReg_FBG2.0_Happy_Flow_E2E_Mobile_iOS.xlsx
@@ -1,123 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/3.Mobile_iOS/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BE319A-80DF-284B-B216-64AF49136C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="iOS_SignIn" sheetId="1" r:id="rId1"/>
-    <sheet name="Mobile_iOS_Test_Results" sheetId="2" r:id="rId2"/>
+    <sheet name="iOS_SignUp" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>TC ID</t>
-  </si>
-  <si>
-    <t>Test Scenario</t>
-  </si>
-  <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Screenshot</t>
-  </si>
-  <si>
-    <t>iOS_SignIn_Email</t>
-  </si>
-  <si>
-    <t>TC012</t>
-  </si>
-  <si>
-    <t>iOS_SignIn_Email_HappyFlow</t>
-  </si>
-  <si>
-    <t>8/5/2025, 9:19:40 AM</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/3.Mobile_iOS/screenshots/Mobile_iOS_SignIn_Email/step9_test_completed_success.png</t>
-  </si>
-  <si>
-    <t>iOS_SubmitSingleCrop</t>
-  </si>
-  <si>
-    <t>TC0016B</t>
-  </si>
-  <si>
-    <t>iOS_SelfDropOff_AddMultipleCropBeforeSubmit_HappyFlow</t>
-  </si>
-  <si>
-    <t>8/6/2025, 11:22:55 AM</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/3.Mobile_iOS/screenshots/Mobile_iOS_TC0016B_SelfDropOff_AddMultipleCropBeforeSubmit/step23_error.png</t>
-  </si>
-  <si>
-    <t>8/6/2025, 11:25:51 AM</t>
-  </si>
-  <si>
-    <t>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/3.Mobile_iOS/screenshots/Mobile_iOS_TC0016B_SelfDropOff_AddMultipleCropBeforeSubmit/step25_test_completed_success.png</t>
-  </si>
-  <si>
-    <t>TC0016A</t>
-  </si>
-  <si>
-    <t>iOS_DriverCollect_AddMultipleCropBeforeSubmit_HappyFlow</t>
-  </si>
-  <si>
-    <t>8/7/2025, 9:13:11 AM</t>
-  </si>
-  <si>
-    <t>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/3.Mobile_iOS/screenshots/Mobile_iOS_TC0016A_DriverCollect_AddMultipleCropBeforeSubmit/step22_error.png</t>
-  </si>
-  <si>
-    <t>8/7/2025, 9:15:21 AM</t>
-  </si>
-  <si>
-    <t>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/3.Mobile_iOS/screenshots/Mobile_iOS_TC0016A_DriverCollect_AddMultipleCropBeforeSubmit/step23_error.png</t>
-  </si>
-  <si>
-    <t>8/7/2025, 9:18:51 AM</t>
-  </si>
-  <si>
-    <t>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/3.Mobile_iOS/screenshots/Mobile_iOS_TC0016A_DriverCollect_AddMultipleCropBeforeSubmit/step21_error.png</t>
-  </si>
-  <si>
-    <t>8/7/2025, 9:21:36 AM</t>
-  </si>
-  <si>
-    <t>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/3.Mobile_iOS/screenshots/Mobile_iOS_TC0016A_DriverCollect_AddMultipleCropBeforeSubmit/step25_test_completed_success.png</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -147,21 +65,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -486,223 +396,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Module</v>
+      </c>
+      <c r="B1" t="str">
+        <v>TC ID</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Test Scenario</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Timestamp</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Result</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Screenshot</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>iOS_Individual_SignUp_Email</v>
+      </c>
+      <c r="B2" t="str">
+        <v>TC001</v>
+      </c>
+      <c r="C2" t="str">
+        <v>iOS_Individual_SignUp_Email_HappyFlow</v>
+      </c>
+      <c r="D2" t="str">
+        <v>8/11/2025, 12:10:17 PM</v>
+      </c>
+      <c r="E2" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F2" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/3.Mobile_iOS/screenshots/Mobile_iOS_SignUp_Email_Individual/step16_error.png</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F2" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="173.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:F7" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/testNadz/3.Mobile_iOS/AutoReg_FBG2.0_Happy_Flow_E2E_Mobile_iOS.xlsx
+++ b/testNadz/3.Mobile_iOS/AutoReg_FBG2.0_Happy_Flow_E2E_Mobile_iOS.xlsx
@@ -433,13 +433,13 @@
         <v>iOS_Individual_SignUp_Email_HappyFlow</v>
       </c>
       <c r="D2" t="str">
-        <v>8/11/2025, 12:10:17 PM</v>
+        <v>8/12/2025, 2:02:15 PM</v>
       </c>
       <c r="E2" t="str">
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="F2" t="str">
-        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/3.Mobile_iOS/screenshots/Mobile_iOS_SignUp_Email_Individual/step16_error.png</v>
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/3.Mobile_iOS/screenshots/Mobile_iOS_SignUp_Email_Individual/step54_test_completed_success.png</v>
       </c>
     </row>
   </sheetData>

--- a/testNadz/3.Mobile_iOS/AutoReg_FBG2.0_Happy_Flow_E2E_Mobile_iOS.xlsx
+++ b/testNadz/3.Mobile_iOS/AutoReg_FBG2.0_Happy_Flow_E2E_Mobile_iOS.xlsx
@@ -4,6 +4,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="iOS_SignUp" sheetId="1" r:id="rId1"/>
+    <sheet name="Mobile_iOS_Test_Results" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -399,7 +400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -433,13 +434,13 @@
         <v>iOS_Individual_SignUp_Email_HappyFlow</v>
       </c>
       <c r="D2" t="str">
-        <v>8/12/2025, 2:02:15 PM</v>
+        <v>8/15/2025, 12:32:48 PM</v>
       </c>
       <c r="E2" t="str">
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="F2" t="str">
-        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/3.Mobile_iOS/screenshots/Mobile_iOS_SignUp_Email_Individual/step54_test_completed_success.png</v>
+        <v>N/A</v>
       </c>
     </row>
   </sheetData>
@@ -447,4 +448,78 @@
     <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Module</v>
+      </c>
+      <c r="B1" t="str">
+        <v>TC ID</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Test Scenario</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Timestamp</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Result</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Screenshot</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>iOS_QRCodeScan</v>
+      </c>
+      <c r="B2" t="str">
+        <v>TC0017A</v>
+      </c>
+      <c r="C2" t="str">
+        <v>iOS_QRCodeScan_HappyFlow</v>
+      </c>
+      <c r="D2" t="str">
+        <v>8/15/2025, 12:43:16 PM</v>
+      </c>
+      <c r="E2" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="F2" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/3.Mobile_iOS/screenshots/Mobile_iOS_TC0017A_QRCodeScan/step3_error.png</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>iOS_QRCodeScan</v>
+      </c>
+      <c r="B3" t="str">
+        <v>TC0017A</v>
+      </c>
+      <c r="C3" t="str">
+        <v>iOS_QRCodeScan_HappyFlow</v>
+      </c>
+      <c r="D3" t="str">
+        <v>8/15/2025, 12:46:06 PM</v>
+      </c>
+      <c r="E3" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F3" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/3.Mobile_iOS/screenshots/Mobile_iOS_TC0017A_QRCodeScan/QRCode.png</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/testNadz/3.Mobile_iOS/AutoReg_FBG2.0_Happy_Flow_E2E_Mobile_iOS.xlsx
+++ b/testNadz/3.Mobile_iOS/AutoReg_FBG2.0_Happy_Flow_E2E_Mobile_iOS.xlsx
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -517,9 +517,29 @@
         <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/3.Mobile_iOS/screenshots/Mobile_iOS_TC0017A_QRCodeScan/QRCode.png</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>iOS_QRCodeScan</v>
+      </c>
+      <c r="B4" t="str">
+        <v>TC0017A</v>
+      </c>
+      <c r="C4" t="str">
+        <v>iOS_QRCodeScan_HappyFlow</v>
+      </c>
+      <c r="D4" t="str">
+        <v>8/19/2025, 11:27:17 AM</v>
+      </c>
+      <c r="E4" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="F4" t="str">
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz-1/testNadz/3.Mobile_iOS/screenshots/Mobile_iOS_TC0017A_QRCodeScan/QRCode.png</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
   </ignoredErrors>
 </worksheet>
 </file>